--- a/biology/Botanique/Botanique_économique/Botanique_économique.xlsx
+++ b/biology/Botanique/Botanique_économique/Botanique_économique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Botanique_%C3%A9conomique</t>
+          <t>Botanique_économique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La botanique économique ou botanique appliquée est la discipline scientifique qui étudie les plantes cultivées par l'Homme et leur exploitation commerciale. Elle participe de l'anthropologie, la biologie, la conservation de la nature, la botanique, et d'autres disciplines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La botanique économique ou botanique appliquée est la discipline scientifique qui étudie les plantes cultivées par l'Homme et leur exploitation commerciale. Elle participe de l'anthropologie, la biologie, la conservation de la nature, la botanique, et d'autres disciplines.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Botanique_%C3%A9conomique</t>
+          <t>Botanique_économique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire du concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier texte recensant des utilisations économiques de plantes semble être celui d'Elias Aspelin (sv), intitulé Flora oeconomica et publié en 1786[2],[3].
-Selon Augustin Pyrame de Candolle, la botanique appliquée, dont l'objet est l'étude des rapports entre les végétaux et l'espèce humaine, comprend la botanique agricole, la botanique médicale, la botanique économique et industrielle, la botanique historique…[4].
-Dans la classification décimale de Dewey, la botanique économique reçoit le code 581.6[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier texte recensant des utilisations économiques de plantes semble être celui d'Elias Aspelin (sv), intitulé Flora oeconomica et publié en 1786,.
+Selon Augustin Pyrame de Candolle, la botanique appliquée, dont l'objet est l'étude des rapports entre les végétaux et l'espèce humaine, comprend la botanique agricole, la botanique médicale, la botanique économique et industrielle, la botanique historique….
+Dans la classification décimale de Dewey, la botanique économique reçoit le code 581.6.
 </t>
         </is>
       </c>
